--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.7102719450149806</v>
+        <v>2.7102719479391624</v>
       </c>
       <c r="C2">
-        <v>7.6214694322499952</v>
+        <v>7.6214694141300754</v>
       </c>
       <c r="D2">
-        <v>11.850501777497527</v>
+        <v>11.850501786052668</v>
       </c>
       <c r="E2">
-        <v>18.004377121801902</v>
+        <v>18.004377129057339</v>
       </c>
       <c r="F2">
-        <v>5.6269008189822358</v>
+        <v>5.6269008197751731</v>
       </c>
       <c r="G2">
-        <v>1.7698302690086578</v>
+        <v>1.7698302474289918</v>
       </c>
       <c r="H2">
-        <v>5.685517835785852</v>
+        <v>5.6855177962811823</v>
       </c>
       <c r="I2">
-        <v>7.9963873693459675</v>
+        <v>7.9963873675302324</v>
       </c>
       <c r="J2">
-        <v>14.098089554470917</v>
+        <v>14.098089551001181</v>
       </c>
       <c r="K2">
-        <v>4.3704474293490563</v>
+        <v>4.3704474192716987</v>
       </c>
       <c r="L2">
-        <v>4.1978656560906629</v>
+        <v>4.1978656979859963</v>
       </c>
       <c r="M2">
-        <v>-6.9269840464927768</v>
+        <v>-6.9269840768907898</v>
       </c>
       <c r="N2">
-        <v>9.9249478398910753</v>
+        <v>9.9249478157569655</v>
       </c>
       <c r="O2">
-        <v>8.5988839954571432</v>
+        <v>8.5988840129827651</v>
       </c>
       <c r="P2">
-        <v>11.161153351480785</v>
+        <v>11.161153317308283</v>
       </c>
       <c r="Q2">
-        <v>0.44533009348474906</v>
+        <v>0.44533008535809415</v>
       </c>
       <c r="R2">
-        <v>-4.5192477991892304</v>
+        <v>-4.5192477786255836</v>
       </c>
       <c r="S2">
-        <v>18.398353307694236</v>
+        <v>18.398353154094337</v>
       </c>
       <c r="T2">
-        <v>15.66277253505816</v>
+        <v>15.66277253935872</v>
       </c>
       <c r="U2">
-        <v>-0.21779613254823005</v>
+        <v>-0.21779614901619482</v>
       </c>
       <c r="V2">
-        <v>6.3320810547857675</v>
+        <v>6.3320810181888731</v>
       </c>
       <c r="W2">
-        <v>-3.2989028228907458</v>
+        <v>-3.2989028978216695</v>
       </c>
       <c r="X2">
-        <v>1.5667129344889901</v>
+        <v>1.5667129370944224</v>
       </c>
       <c r="Y2">
-        <v>14.383620274124532</v>
+        <v>14.383620259313716</v>
       </c>
       <c r="Z2">
-        <v>8.4138007563718347</v>
+        <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>22.470464073620633</v>
+        <v>22.470464140581598</v>
       </c>
       <c r="AB2">
-        <v>17.856831021612464</v>
+        <v>17.856830973799973</v>
       </c>
       <c r="AC2">
-        <v>2.6316209823599195</v>
+        <v>2.631620958936594</v>
       </c>
       <c r="AD2">
-        <v>22.708091842083377</v>
+        <v>22.708091813955434</v>
       </c>
       <c r="AE2">
-        <v>6.6402569883454987</v>
+        <v>6.6402569931422235</v>
       </c>
       <c r="AF2">
-        <v>10.036374732543322</v>
+        <v>10.036374693867934</v>
       </c>
       <c r="AG2">
-        <v>11.916376433906613</v>
+        <v>11.916376391304404</v>
       </c>
       <c r="AH2">
-        <v>12.713609815896554</v>
+        <v>12.713609797094968</v>
       </c>
       <c r="AI2">
-        <v>21.30201838563201</v>
+        <v>21.302018253757325</v>
       </c>
       <c r="AJ2">
-        <v>11.260377823617304</v>
+        <v>11.260377780546037</v>
       </c>
       <c r="AK2">
-        <v>13.918591120524191</v>
+        <v>13.918591088744876</v>
       </c>
       <c r="AL2">
-        <v>-1.917272956903517</v>
+        <v>-1.9172729978303806</v>
       </c>
       <c r="AM2">
-        <v>13.962525025977087</v>
+        <v>13.962524936529718</v>
       </c>
       <c r="AN2">
-        <v>11.416941877967403</v>
+        <v>11.416941844320057</v>
       </c>
       <c r="AO2">
-        <v>20.682371283275941</v>
+        <v>20.682371409945162</v>
       </c>
       <c r="AP2">
-        <v>13.942111729699221</v>
+        <v>13.942111704710328</v>
       </c>
       <c r="AQ2">
-        <v>-1.8852598144185606</v>
+        <v>-1.8852598986136755</v>
       </c>
       <c r="AR2">
-        <v>19.79293717596687</v>
+        <v>19.79293716791652</v>
       </c>
       <c r="AS2">
-        <v>23.586014484571791</v>
+        <v>23.586014405360558</v>
       </c>
       <c r="AT2">
-        <v>7.8399808918634335</v>
+        <v>7.8399809728736471</v>
       </c>
       <c r="AU2">
-        <v>11.960176754921292</v>
+        <v>11.96017669901736</v>
       </c>
       <c r="AV2">
-        <v>13.389420872476713</v>
+        <v>13.389420917441804</v>
       </c>
       <c r="AW2">
-        <v>5.7516394505989368</v>
+        <v>5.751639370164078</v>
       </c>
       <c r="AX2">
-        <v>17.423407734865137</v>
+        <v>17.423407676225821</v>
       </c>
       <c r="AY2">
-        <v>19.601576507791627</v>
+        <v>19.601576463128772</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>8.2664861702904986</v>
       </c>
       <c r="C3">
-        <v>7.3555051628851871</v>
+        <v>7.3555051439307562</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>13.186041289375055</v>
       </c>
       <c r="E3">
-        <v>13.756592838553217</v>
+        <v>13.756592819410869</v>
       </c>
       <c r="F3">
-        <v>5.354270030611147</v>
+        <v>5.3542700077552183</v>
       </c>
       <c r="G3">
-        <v>11.637653439476907</v>
+        <v>11.637653421785274</v>
       </c>
       <c r="H3">
-        <v>-2.3198708380351576</v>
+        <v>-2.319870827880834</v>
       </c>
       <c r="I3">
-        <v>3.2170748954077837</v>
+        <v>3.2170748805527936</v>
       </c>
       <c r="J3">
-        <v>16.071147537472356</v>
+        <v>16.071147481147548</v>
       </c>
       <c r="K3">
-        <v>22.108339659676282</v>
+        <v>22.108339652979559</v>
       </c>
       <c r="L3">
-        <v>13.96405661508885</v>
+        <v>13.964056585837334</v>
       </c>
       <c r="M3">
-        <v>-0.1570741001046656</v>
+        <v>-0.15761297124629436</v>
       </c>
       <c r="N3">
-        <v>8.2072100431750528</v>
+        <v>8.2072100330232018</v>
       </c>
       <c r="O3">
-        <v>-11.056579334738764</v>
+        <v>-11.056579331350925</v>
       </c>
       <c r="P3">
-        <v>12.931075120337923</v>
+        <v>12.931075068089498</v>
       </c>
       <c r="Q3">
-        <v>5.4134360371323353</v>
+        <v>5.413436002500454</v>
       </c>
       <c r="R3">
-        <v>3.2813696586942243</v>
+        <v>3.2813695555772853</v>
       </c>
       <c r="S3">
-        <v>15.593538812303343</v>
+        <v>15.59353878347347</v>
       </c>
       <c r="T3">
-        <v>16.24776544799716</v>
+        <v>16.247765423193364</v>
       </c>
       <c r="U3">
-        <v>7.2521276951696549</v>
+        <v>7.2521276686035279</v>
       </c>
       <c r="V3">
-        <v>8.722186228017847</v>
+        <v>8.72218623875942</v>
       </c>
       <c r="W3">
-        <v>1.4151561953875458</v>
+        <v>1.4151561480693786</v>
       </c>
       <c r="X3">
-        <v>-2.7353796915538666</v>
+        <v>-2.7353797058877589</v>
       </c>
       <c r="Y3">
-        <v>18.263540685526173</v>
+        <v>18.263540644644017</v>
       </c>
       <c r="Z3">
-        <v>10.342583136776987</v>
+        <v>10.342583118105118</v>
       </c>
       <c r="AA3">
-        <v>20.01510524831329</v>
+        <v>20.015105282055757</v>
       </c>
       <c r="AB3">
-        <v>16.93401951758927</v>
+        <v>16.934019474240237</v>
       </c>
       <c r="AC3">
-        <v>17.751324577887068</v>
+        <v>17.751324484830413</v>
       </c>
       <c r="AD3">
-        <v>23.250140926005422</v>
+        <v>23.250140792536705</v>
       </c>
       <c r="AE3">
-        <v>13.359826726313266</v>
+        <v>13.359826632355585</v>
       </c>
       <c r="AF3">
-        <v>12.104163379756436</v>
+        <v>12.10416331982757</v>
       </c>
       <c r="AG3">
-        <v>8.7562267512697076</v>
+        <v>8.7562267069483255</v>
       </c>
       <c r="AH3">
-        <v>6.3918156639160486</v>
+        <v>6.3918156252483982</v>
       </c>
       <c r="AI3">
-        <v>40.154645568717555</v>
+        <v>40.154645654595541</v>
       </c>
       <c r="AJ3">
-        <v>21.972189569419328</v>
+        <v>21.972189501896111</v>
       </c>
       <c r="AK3">
-        <v>15.407601045611528</v>
+        <v>15.407600884804424</v>
       </c>
       <c r="AL3">
-        <v>10.790608462511408</v>
+        <v>10.790608404301373</v>
       </c>
       <c r="AM3">
-        <v>15.608761096298991</v>
+        <v>15.608761011856245</v>
       </c>
       <c r="AN3">
-        <v>-4.4585716158025477</v>
+        <v>-4.4585716374623487</v>
       </c>
       <c r="AO3">
-        <v>22.203570494728233</v>
+        <v>22.203570324804382</v>
       </c>
       <c r="AP3">
-        <v>4.0664202841757486</v>
+        <v>4.0664202485329781</v>
       </c>
       <c r="AQ3">
-        <v>10.668778382784723</v>
+        <v>10.668778343696957</v>
       </c>
       <c r="AR3">
-        <v>25.746310084194043</v>
+        <v>25.746310175715912</v>
       </c>
       <c r="AS3">
-        <v>17.038730013393945</v>
+        <v>17.0387300425337</v>
       </c>
       <c r="AT3">
-        <v>12.331987137780374</v>
+        <v>12.331987067698549</v>
       </c>
       <c r="AU3">
-        <v>9.1228722102834823</v>
+        <v>9.1228721202599559</v>
       </c>
       <c r="AV3">
-        <v>8.4937329635907872</v>
+        <v>8.4937328755084991</v>
       </c>
       <c r="AW3">
-        <v>6.7761144678908352</v>
+        <v>6.7761136459390201</v>
       </c>
       <c r="AX3">
-        <v>11.8144509717186</v>
+        <v>11.814450785856891</v>
       </c>
       <c r="AY3">
-        <v>23.186581892178715</v>
+        <v>23.186581847296004</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.7102719479391624</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6214694141300754</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11.850501786052668</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18.004377129057339</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.6269008197751731</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.7698302474289918</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.6855177962811823</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.9963873675302324</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.098089551001181</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.3704474192716987</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.1978656979859963</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.9269840768907898</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.9249478157569655</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.5988840129827651</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.161153317308283</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.44533008535809415</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-4.5192477786255836</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>18.398353154094337</v>
+        <v>10.82763835478525</v>
       </c>
       <c r="T2">
         <v>15.66277253935872</v>
@@ -588,55 +477,55 @@
         <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>22.470464140581598</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.856830973799973</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.631620958936594</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>22.708091813955434</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.6402569931422235</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.036374693867934</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.916376391304404</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.713609797094968</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>21.302018253757325</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.260377780546037</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.918591088744876</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-1.9172729978303806</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.962524936529718</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>11.416941844320057</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>20.682371409945162</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.942111704710328</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.8852598986136755</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>19.79293716791652</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.2664861702904986</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.3555051439307562</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.186041289375055</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.756592819410869</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.3542700077552183</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.637653421785274</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-2.319870827880834</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.2170748805527936</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.071147481147548</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>22.108339652979559</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.964056585837334</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.15761297124629436</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.2072100330232018</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-11.056579331350925</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.931075068089498</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.413436002500454</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.2813695555772853</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.59353878347347</v>
@@ -743,55 +629,55 @@
         <v>10.342583118105118</v>
       </c>
       <c r="AA3">
-        <v>20.015105282055757</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.934019474240237</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>17.751324484830413</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>23.250140792536705</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.359826632355585</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.10416331982757</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>8.7562267069483255</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.3918156252483982</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>40.154645654595541</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>21.972189501896111</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>15.407600884804424</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>10.790608404301373</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.608761011856245</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-4.4585716374623487</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>22.203570324804382</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.0664202485329781</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.668778343696957</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>25.746310175715912</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.7102719450149806</v>
-      </c>
       <c r="C2">
-        <v>5.5493970015228626</v>
-      </c>
-      <c r="D2">
-        <v>11.850501777497527</v>
+        <v>-4.5192477786255836</v>
       </c>
       <c r="E2">
-        <v>18.004377121801902</v>
+        <v>-1.8852598986136755</v>
       </c>
       <c r="F2">
         <v>5.6269008189822358</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>-5.4378866419480616</v>
       </c>
       <c r="C3">
-        <v>7.3555051628851871</v>
+        <v>3.2813695555772853</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>-2.7961996361685308</v>
       </c>
       <c r="E3">
-        <v>13.756592838553217</v>
+        <v>10.479197686557249</v>
       </c>
       <c r="F3">
         <v>5.354270030611147</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.7102719450149806</v>
-      </c>
-      <c r="C2">
-        <v>5.5493970015228626</v>
+        <v>9.3300853526987098</v>
       </c>
       <c r="D2">
-        <v>11.850501777497527</v>
-      </c>
-      <c r="E2">
-        <v>18.004377121801902</v>
+        <v>13.962524936529718</v>
       </c>
       <c r="F2">
         <v>5.6269008189822358</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>8.2072100330232018</v>
       </c>
       <c r="C3">
-        <v>7.3555051628851871</v>
+        <v>-5.4378866419480616</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>15.608761011856245</v>
       </c>
       <c r="E3">
-        <v>18.960855443398358</v>
+        <v>-2.7961996361685308</v>
       </c>
       <c r="F3">
         <v>5.354270030611147</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.7102719479391624</v>
+      </c>
+      <c r="C2">
+        <v>5.5493969277678445</v>
+      </c>
+      <c r="D2">
+        <v>11.850501786052668</v>
+      </c>
+      <c r="E2">
+        <v>18.004377129057339</v>
+      </c>
+      <c r="F2">
+        <v>5.6269008197751731</v>
+      </c>
+      <c r="G2">
+        <v>5.4880359461876296</v>
+      </c>
+      <c r="H2">
+        <v>5.6855177962811823</v>
+      </c>
+      <c r="I2">
+        <v>11.978697040330701</v>
+      </c>
+      <c r="J2">
+        <v>14.098089551001181</v>
+      </c>
+      <c r="K2">
+        <v>4.3704474192716987</v>
+      </c>
+      <c r="L2">
+        <v>7.0613201726847379</v>
+      </c>
+      <c r="M2">
+        <v>-3.397834303953573E-2</v>
+      </c>
+      <c r="N2">
         <v>9.3300853526987098</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>12.544500001226709</v>
+      </c>
+      <c r="Q2">
+        <v>0.44533008535809415</v>
+      </c>
+      <c r="R2">
+        <v>-4.5192477786255836</v>
+      </c>
+      <c r="T2">
+        <v>12.777827539744095</v>
+      </c>
+      <c r="U2">
+        <v>-0.21779614901619482</v>
+      </c>
+      <c r="V2">
+        <v>9.491437560124659</v>
+      </c>
+      <c r="W2">
+        <v>-3.2989028978216695</v>
+      </c>
+      <c r="X2">
+        <v>1.5667129370944224</v>
+      </c>
+      <c r="Y2">
+        <v>14.383620259313716</v>
+      </c>
+      <c r="Z2">
+        <v>8.4138007356230915</v>
+      </c>
+      <c r="AA2">
+        <v>22.470464140581598</v>
+      </c>
+      <c r="AB2">
+        <v>17.856830973799973</v>
+      </c>
+      <c r="AC2">
+        <v>2.631620958936594</v>
+      </c>
+      <c r="AD2">
+        <v>22.708091813955434</v>
+      </c>
+      <c r="AE2">
+        <v>6.6402569931422235</v>
+      </c>
+      <c r="AF2">
+        <v>10.036374693867934</v>
+      </c>
+      <c r="AG2">
+        <v>11.916376391304404</v>
+      </c>
+      <c r="AH2">
+        <v>12.713609797094968</v>
+      </c>
+      <c r="AI2">
+        <v>21.302018253757325</v>
+      </c>
+      <c r="AJ2">
+        <v>11.260377780546037</v>
+      </c>
+      <c r="AK2">
+        <v>13.918591088744876</v>
+      </c>
+      <c r="AL2">
+        <v>-1.9172729978303806</v>
+      </c>
+      <c r="AM2">
         <v>13.962524936529718</v>
       </c>
-      <c r="F2">
-        <v>5.6269008189822358</v>
-      </c>
-      <c r="G2">
-        <v>5.4880360049695653</v>
-      </c>
-      <c r="H2">
-        <v>5.685517835785852</v>
-      </c>
-      <c r="I2">
-        <v>11.9786970299117</v>
-      </c>
-      <c r="J2">
-        <v>14.098089554470917</v>
-      </c>
-      <c r="K2">
-        <v>4.3704474293490563</v>
-      </c>
-      <c r="L2">
-        <v>7.0613203524104549</v>
-      </c>
-      <c r="M2">
-        <v>-3.3978334275673205E-2</v>
-      </c>
-      <c r="N2">
-        <v>9.3300853852671111</v>
-      </c>
-      <c r="P2">
-        <v>12.544500049924572</v>
-      </c>
-      <c r="Q2">
-        <v>0.44533009348474906</v>
-      </c>
-      <c r="R2">
-        <v>-4.5192477991892304</v>
-      </c>
-      <c r="T2">
-        <v>12.777827536065416</v>
-      </c>
-      <c r="U2">
-        <v>-0.21779613254823005</v>
-      </c>
-      <c r="V2">
-        <v>9.4914376235371307</v>
-      </c>
-      <c r="W2">
-        <v>-3.2989028228907458</v>
-      </c>
-      <c r="X2">
-        <v>1.5667129344889901</v>
-      </c>
-      <c r="Y2">
-        <v>14.383620274124532</v>
-      </c>
-      <c r="Z2">
-        <v>8.4138007563718347</v>
-      </c>
-      <c r="AA2">
-        <v>22.470464073620633</v>
-      </c>
-      <c r="AB2">
-        <v>17.856831021612464</v>
-      </c>
-      <c r="AC2">
-        <v>2.6316209823599195</v>
-      </c>
-      <c r="AD2">
-        <v>22.708091842083377</v>
-      </c>
-      <c r="AE2">
-        <v>6.6402569883454987</v>
-      </c>
-      <c r="AF2">
-        <v>10.036374732543322</v>
-      </c>
-      <c r="AG2">
-        <v>11.916376433906613</v>
-      </c>
-      <c r="AH2">
-        <v>12.713609815896554</v>
-      </c>
-      <c r="AI2">
-        <v>21.30201838563201</v>
-      </c>
-      <c r="AJ2">
-        <v>11.260377823617304</v>
-      </c>
-      <c r="AK2">
-        <v>13.918591120524191</v>
-      </c>
-      <c r="AL2">
-        <v>-1.917272956903517</v>
-      </c>
-      <c r="AM2">
-        <v>13.962525025977087</v>
-      </c>
       <c r="AO2">
-        <v>20.682371283275941</v>
+        <v>20.682371409945162</v>
       </c>
       <c r="AP2">
-        <v>16.044515128893281</v>
+        <v>16.044515097882666</v>
       </c>
       <c r="AQ2">
-        <v>-1.8852598144185606</v>
+        <v>-1.8852598986136755</v>
       </c>
       <c r="AR2">
-        <v>19.79293717596687</v>
+        <v>19.79293716791652</v>
       </c>
       <c r="AS2">
-        <v>23.586014484571791</v>
+        <v>23.586014405360558</v>
       </c>
       <c r="AT2">
-        <v>7.8399808918634335</v>
+        <v>7.8399809728736471</v>
       </c>
       <c r="AU2">
-        <v>6.0872162236393166</v>
+        <v>6.0872162364120541</v>
       </c>
       <c r="AV2">
-        <v>13.389420872476713</v>
+        <v>13.389420917441804</v>
       </c>
       <c r="AW2">
-        <v>5.7516394505989368</v>
+        <v>5.751639370164078</v>
       </c>
       <c r="AX2">
-        <v>17.423407734865137</v>
+        <v>17.423407676225821</v>
       </c>
       <c r="AY2">
-        <v>19.601576507791627</v>
+        <v>19.601576463128772</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.2664861702904986</v>
+      </c>
+      <c r="C3">
+        <v>7.3555051439307562</v>
+      </c>
+      <c r="D3">
+        <v>13.186041289375055</v>
+      </c>
+      <c r="E3">
+        <v>18.960855404418552</v>
+      </c>
+      <c r="F3">
+        <v>5.3542700077552183</v>
+      </c>
+      <c r="G3">
+        <v>11.637653421785274</v>
+      </c>
+      <c r="H3">
+        <v>-2.319870827880834</v>
+      </c>
+      <c r="I3">
+        <v>3.2170748805527936</v>
+      </c>
+      <c r="J3">
+        <v>16.071147481147548</v>
+      </c>
+      <c r="K3">
+        <v>18.885520844617126</v>
+      </c>
+      <c r="L3">
+        <v>13.964056585837334</v>
+      </c>
+      <c r="M3">
+        <v>-3.1085370227115305</v>
+      </c>
+      <c r="N3">
         <v>8.2072100330232018</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-5.4378866419480616</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>12.931075068089498</v>
+      </c>
+      <c r="Q3">
+        <v>5.413436002500454</v>
+      </c>
+      <c r="R3">
+        <v>3.2813695555772853</v>
+      </c>
+      <c r="S3">
+        <v>15.59353878347347</v>
+      </c>
+      <c r="T3">
+        <v>16.247765423193364</v>
+      </c>
+      <c r="U3">
+        <v>7.2521276686035279</v>
+      </c>
+      <c r="V3">
+        <v>10.246739022117929</v>
+      </c>
+      <c r="W3">
+        <v>1.4449796858719637</v>
+      </c>
+      <c r="X3">
+        <v>-2.7353797058877589</v>
+      </c>
+      <c r="Y3">
+        <v>18.263540644644017</v>
+      </c>
+      <c r="Z3">
+        <v>10.342583118105118</v>
+      </c>
+      <c r="AA3">
+        <v>20.015105282055757</v>
+      </c>
+      <c r="AB3">
+        <v>16.934019474240237</v>
+      </c>
+      <c r="AC3">
+        <v>17.751324484830413</v>
+      </c>
+      <c r="AD3">
+        <v>23.250140792536705</v>
+      </c>
+      <c r="AE3">
+        <v>13.359826632355585</v>
+      </c>
+      <c r="AF3">
+        <v>12.10416331982757</v>
+      </c>
+      <c r="AG3">
+        <v>8.7562267069483255</v>
+      </c>
+      <c r="AH3">
+        <v>6.3918156252483982</v>
+      </c>
+      <c r="AI3">
+        <v>18.462687835089667</v>
+      </c>
+      <c r="AJ3">
+        <v>21.972189501896111</v>
+      </c>
+      <c r="AK3">
+        <v>15.407600884804424</v>
+      </c>
+      <c r="AL3">
+        <v>10.790608404301373</v>
+      </c>
+      <c r="AM3">
         <v>15.608761011856245</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-2.7961996361685308</v>
       </c>
-      <c r="F3">
-        <v>5.354270030611147</v>
-      </c>
-      <c r="G3">
-        <v>11.637653439476907</v>
-      </c>
-      <c r="H3">
-        <v>-2.3198708380351576</v>
-      </c>
-      <c r="I3">
-        <v>3.2170748954077837</v>
-      </c>
-      <c r="J3">
-        <v>16.071147537472356</v>
-      </c>
-      <c r="K3">
-        <v>18.885520849484571</v>
-      </c>
-      <c r="L3">
-        <v>13.96405661508885</v>
-      </c>
-      <c r="M3">
-        <v>-3.1081218521837428</v>
-      </c>
-      <c r="N3">
-        <v>8.2072100431750528</v>
-      </c>
-      <c r="O3">
-        <v>-5.437886639877398</v>
-      </c>
-      <c r="P3">
-        <v>12.931075120337923</v>
-      </c>
-      <c r="Q3">
-        <v>5.4134360371323353</v>
-      </c>
-      <c r="R3">
-        <v>3.2813696586942243</v>
-      </c>
-      <c r="S3">
-        <v>15.593538812303343</v>
-      </c>
-      <c r="T3">
-        <v>16.24776544799716</v>
-      </c>
-      <c r="U3">
-        <v>7.2521276951696549</v>
-      </c>
-      <c r="V3">
-        <v>10.246739059602127</v>
-      </c>
-      <c r="W3">
-        <v>1.4449797000328104</v>
-      </c>
-      <c r="X3">
-        <v>-2.7353796915538666</v>
-      </c>
-      <c r="Y3">
-        <v>18.263540685526173</v>
-      </c>
-      <c r="Z3">
-        <v>10.342583136776987</v>
-      </c>
-      <c r="AA3">
-        <v>20.01510524831329</v>
-      </c>
-      <c r="AB3">
-        <v>16.93401951758927</v>
-      </c>
-      <c r="AC3">
-        <v>17.751324577887068</v>
-      </c>
-      <c r="AD3">
-        <v>23.250140926005422</v>
-      </c>
-      <c r="AE3">
-        <v>13.359826726313266</v>
-      </c>
-      <c r="AF3">
-        <v>12.104163379756436</v>
-      </c>
-      <c r="AG3">
-        <v>8.7562267512697076</v>
-      </c>
-      <c r="AH3">
-        <v>6.3918156639160486</v>
-      </c>
-      <c r="AI3">
-        <v>18.462688040390034</v>
-      </c>
-      <c r="AJ3">
-        <v>21.972189569419328</v>
-      </c>
-      <c r="AK3">
-        <v>15.407601045611528</v>
-      </c>
-      <c r="AL3">
-        <v>10.790608462511408</v>
-      </c>
-      <c r="AM3">
-        <v>15.608761096298991</v>
-      </c>
-      <c r="AN3">
-        <v>-2.7961996191818983</v>
-      </c>
       <c r="AO3">
-        <v>22.203570494728233</v>
+        <v>22.203570324804382</v>
       </c>
       <c r="AP3">
-        <v>4.0664202841757486</v>
+        <v>4.0664202485329781</v>
       </c>
       <c r="AQ3">
-        <v>10.479197713294347</v>
+        <v>10.479197686557249</v>
       </c>
       <c r="AR3">
-        <v>25.746310084194043</v>
+        <v>25.746310175715912</v>
       </c>
       <c r="AS3">
-        <v>17.038730013393945</v>
+        <v>17.0387300425337</v>
       </c>
       <c r="AT3">
-        <v>12.331987137780374</v>
+        <v>12.331987067698549</v>
       </c>
       <c r="AU3">
-        <v>9.616764537184352</v>
+        <v>9.6167643385992818</v>
       </c>
       <c r="AV3">
-        <v>8.4937329635907872</v>
+        <v>8.4937328755084991</v>
       </c>
       <c r="AW3">
-        <v>6.7761144678908352</v>
+        <v>6.7761136459390201</v>
       </c>
       <c r="AX3">
-        <v>11.8144509717186</v>
+        <v>11.814450785856891</v>
       </c>
       <c r="AY3">
-        <v>23.186581892178715</v>
+        <v>23.186581847296004</v>
       </c>
     </row>
   </sheetData>
